--- a/downloaded_files/EPES402_Tutorial-35437.xlsx
+++ b/downloaded_files/EPES402_Tutorial-35437.xlsx
@@ -1020,11 +1020,11 @@
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter differentOddEven="0" differentFirst="0" scaleWithDoc="1" alignWithMargins="1">
-    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Power System Analysis (EPES402) Location : [18102]18102-60-الجيزة الرئيسي Time : Monday(11:13)</x:oddHeader>
+    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Power System Analysis (EPES402) Location : [18203]18203-30-الجيزة الرئيسي Time : Monday(11:13)</x:oddHeader>
     <x:oddFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:oddFooter>
-    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Power System Analysis (EPES402) Location : [18102]18102-60-الجيزة الرئيسي Time : Monday(11:13)</x:evenHeader>
+    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Power System Analysis (EPES402) Location : [18203]18203-30-الجيزة الرئيسي Time : Monday(11:13)</x:evenHeader>
     <x:evenFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:evenFooter>
-    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Power System Analysis (EPES402) Location : [18102]18102-60-الجيزة الرئيسي Time : Monday(11:13)</x:firstHeader>
+    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Power System Analysis (EPES402) Location : [18203]18203-30-الجيزة الرئيسي Time : Monday(11:13)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
   <x:tableParts count="1">

--- a/downloaded_files/EPES402_Tutorial-35437.xlsx
+++ b/downloaded_files/EPES402_Tutorial-35437.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -60,6 +60,15 @@
     <x:t>Adham Mohamed Adelfattah Eid</x:t>
   </x:si>
   <x:si>
+    <x:t>1210407</x:t>
+  </x:si>
+  <x:si>
+    <x:t>الاء محمود الحسين عبدالعال</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Alaa Mahmoud Elhussein Abdelaal</x:t>
+  </x:si>
+  <x:si>
     <x:t>1220004</x:t>
   </x:si>
   <x:si>
@@ -103,6 +112,15 @@
   </x:si>
   <x:si>
     <x:t>Mahmoud mostafa mohamed aly</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210423</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مريم مجدى محمد احمد ايوب</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Mariam Magdy Mohamed </x:t>
   </x:si>
   <x:si>
     <x:t>1210118</x:t>
@@ -254,7 +272,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E13" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E15" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -554,7 +572,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T13"/>
+  <x:dimension ref="A1:T15"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -564,7 +582,7 @@
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="29.130625000000002" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="40.810625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="15.110625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
   </x:cols>
@@ -741,7 +759,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45907.4194462153</x:v>
+        <x:v>45927.4152961458</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -773,7 +791,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45907.4869801736</x:v>
+        <x:v>45907.4194462153</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -805,7 +823,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45906.6643803588</x:v>
+        <x:v>45907.4869801736</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -837,7 +855,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.4261113426</x:v>
+        <x:v>45906.6643803588</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -869,7 +887,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45906.6649337616</x:v>
+        <x:v>45907.4261113426</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -901,7 +919,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45906.6647323727</x:v>
+        <x:v>45906.6649337616</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -933,7 +951,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45906.711025</x:v>
+        <x:v>45927.4576959491</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -965,7 +983,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45906.6647042824</x:v>
+        <x:v>45906.6647323727</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -997,7 +1015,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.4175680903</x:v>
+        <x:v>45906.711025</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1014,6 +1032,70 @@
       <x:c r="R13" s="2" t="s"/>
       <x:c r="S13" s="2" t="s"/>
       <x:c r="T13" s="2" t="s"/>
+    </x:row>
+    <x:row r="14" spans="1:20">
+      <x:c r="A14" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B14" s="2" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="C14" s="2" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="D14" s="2" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="E14" s="3">
+        <x:v>45906.6647042824</x:v>
+      </x:c>
+      <x:c r="F14" s="2" t="s"/>
+      <x:c r="G14" s="2" t="s"/>
+      <x:c r="H14" s="2" t="s"/>
+      <x:c r="I14" s="2" t="s"/>
+      <x:c r="J14" s="2" t="s"/>
+      <x:c r="K14" s="2" t="s"/>
+      <x:c r="L14" s="2" t="s"/>
+      <x:c r="M14" s="2" t="s"/>
+      <x:c r="N14" s="2" t="s"/>
+      <x:c r="O14" s="2" t="s"/>
+      <x:c r="P14" s="2" t="s"/>
+      <x:c r="Q14" s="2" t="s"/>
+      <x:c r="R14" s="2" t="s"/>
+      <x:c r="S14" s="2" t="s"/>
+      <x:c r="T14" s="2" t="s"/>
+    </x:row>
+    <x:row r="15" spans="1:20">
+      <x:c r="A15" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B15" s="2" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="C15" s="2" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="D15" s="2" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="E15" s="3">
+        <x:v>45907.4175680903</x:v>
+      </x:c>
+      <x:c r="F15" s="2" t="s"/>
+      <x:c r="G15" s="2" t="s"/>
+      <x:c r="H15" s="2" t="s"/>
+      <x:c r="I15" s="2" t="s"/>
+      <x:c r="J15" s="2" t="s"/>
+      <x:c r="K15" s="2" t="s"/>
+      <x:c r="L15" s="2" t="s"/>
+      <x:c r="M15" s="2" t="s"/>
+      <x:c r="N15" s="2" t="s"/>
+      <x:c r="O15" s="2" t="s"/>
+      <x:c r="P15" s="2" t="s"/>
+      <x:c r="Q15" s="2" t="s"/>
+      <x:c r="R15" s="2" t="s"/>
+      <x:c r="S15" s="2" t="s"/>
+      <x:c r="T15" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EPES402_Tutorial-35437.xlsx
+++ b/downloaded_files/EPES402_Tutorial-35437.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -58,6 +58,12 @@
   </x:si>
   <x:si>
     <x:t>Adham Mohamed Adelfattah Eid</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4220107</x:t>
+  </x:si>
+  <x:si>
+    <x:t>اسماعيل محمد محمد اشرف شهدى احمد فريد</x:t>
   </x:si>
   <x:si>
     <x:t>1210407</x:t>
@@ -272,7 +278,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E15" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E16" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -572,7 +578,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T15"/>
+  <x:dimension ref="A1:T16"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -580,7 +586,7 @@
   <x:cols>
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="29.130625000000002" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="33.920625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="40.810625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
@@ -755,11 +761,9 @@
       <x:c r="C5" s="2" t="s">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="D5" s="2" t="s">
-        <x:v>16</x:v>
-      </x:c>
+      <x:c r="D5" s="2" t="s"/>
       <x:c r="E5" s="3">
-        <x:v>45927.4152961458</x:v>
+        <x:v>45928.81628125</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -782,16 +786,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C6" s="2" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="C6" s="2" t="s">
+      <x:c r="D6" s="2" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="D6" s="2" t="s">
-        <x:v>19</x:v>
-      </x:c>
       <x:c r="E6" s="3">
-        <x:v>45907.4194462153</x:v>
+        <x:v>45927.4152961458</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -814,16 +818,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B7" s="2" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C7" s="2" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="C7" s="2" t="s">
+      <x:c r="D7" s="2" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="D7" s="2" t="s">
-        <x:v>22</x:v>
-      </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.4869801736</x:v>
+        <x:v>45907.4194462153</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -846,16 +850,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B8" s="2" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="C8" s="2" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="C8" s="2" t="s">
+      <x:c r="D8" s="2" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="D8" s="2" t="s">
-        <x:v>25</x:v>
-      </x:c>
       <x:c r="E8" s="3">
-        <x:v>45906.6643803588</x:v>
+        <x:v>45907.4869801736</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -878,16 +882,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B9" s="2" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C9" s="2" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="C9" s="2" t="s">
+      <x:c r="D9" s="2" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="D9" s="2" t="s">
-        <x:v>28</x:v>
-      </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.4261113426</x:v>
+        <x:v>45906.6643803588</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -910,16 +914,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B10" s="2" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="C10" s="2" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="C10" s="2" t="s">
+      <x:c r="D10" s="2" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="D10" s="2" t="s">
-        <x:v>31</x:v>
-      </x:c>
       <x:c r="E10" s="3">
-        <x:v>45906.6649337616</x:v>
+        <x:v>45907.4261113426</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -942,16 +946,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B11" s="2" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="C11" s="2" t="s">
         <x:v>32</x:v>
       </x:c>
-      <x:c r="C11" s="2" t="s">
+      <x:c r="D11" s="2" t="s">
         <x:v>33</x:v>
       </x:c>
-      <x:c r="D11" s="2" t="s">
-        <x:v>34</x:v>
-      </x:c>
       <x:c r="E11" s="3">
-        <x:v>45927.4576959491</x:v>
+        <x:v>45906.6649337616</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -974,16 +978,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B12" s="2" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="C12" s="2" t="s">
         <x:v>35</x:v>
       </x:c>
-      <x:c r="C12" s="2" t="s">
+      <x:c r="D12" s="2" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="D12" s="2" t="s">
-        <x:v>37</x:v>
-      </x:c>
       <x:c r="E12" s="3">
-        <x:v>45906.6647323727</x:v>
+        <x:v>45927.4576959491</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1006,16 +1010,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B13" s="2" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="C13" s="2" t="s">
         <x:v>38</x:v>
       </x:c>
-      <x:c r="C13" s="2" t="s">
+      <x:c r="D13" s="2" t="s">
         <x:v>39</x:v>
       </x:c>
-      <x:c r="D13" s="2" t="s">
-        <x:v>40</x:v>
-      </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.711025</x:v>
+        <x:v>45906.6647323727</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1038,16 +1042,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B14" s="2" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="C14" s="2" t="s">
         <x:v>41</x:v>
       </x:c>
-      <x:c r="C14" s="2" t="s">
+      <x:c r="D14" s="2" t="s">
         <x:v>42</x:v>
       </x:c>
-      <x:c r="D14" s="2" t="s">
-        <x:v>43</x:v>
-      </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.6647042824</x:v>
+        <x:v>45906.711025</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1070,16 +1074,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B15" s="2" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="C15" s="2" t="s">
         <x:v>44</x:v>
       </x:c>
-      <x:c r="C15" s="2" t="s">
+      <x:c r="D15" s="2" t="s">
         <x:v>45</x:v>
       </x:c>
-      <x:c r="D15" s="2" t="s">
-        <x:v>46</x:v>
-      </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.4175680903</x:v>
+        <x:v>45906.6647042824</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1096,6 +1100,38 @@
       <x:c r="R15" s="2" t="s"/>
       <x:c r="S15" s="2" t="s"/>
       <x:c r="T15" s="2" t="s"/>
+    </x:row>
+    <x:row r="16" spans="1:20">
+      <x:c r="A16" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B16" s="2" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="C16" s="2" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="D16" s="2" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="E16" s="3">
+        <x:v>45907.4175680903</x:v>
+      </x:c>
+      <x:c r="F16" s="2" t="s"/>
+      <x:c r="G16" s="2" t="s"/>
+      <x:c r="H16" s="2" t="s"/>
+      <x:c r="I16" s="2" t="s"/>
+      <x:c r="J16" s="2" t="s"/>
+      <x:c r="K16" s="2" t="s"/>
+      <x:c r="L16" s="2" t="s"/>
+      <x:c r="M16" s="2" t="s"/>
+      <x:c r="N16" s="2" t="s"/>
+      <x:c r="O16" s="2" t="s"/>
+      <x:c r="P16" s="2" t="s"/>
+      <x:c r="Q16" s="2" t="s"/>
+      <x:c r="R16" s="2" t="s"/>
+      <x:c r="S16" s="2" t="s"/>
+      <x:c r="T16" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EPES402_Tutorial-35437.xlsx
+++ b/downloaded_files/EPES402_Tutorial-35437.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -40,6 +40,15 @@
   </x:si>
   <x:si>
     <x:t>Ahmed Aef Mohamed Lotfy Aly Maghraby</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220032</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد محمد شوقى التهامى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ahmed Mohamed Shawkey Eltohamyy</x:t>
   </x:si>
   <x:si>
     <x:t>1210198</x:t>
@@ -278,7 +287,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E16" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E17" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -578,7 +587,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T16"/>
+  <x:dimension ref="A1:T17"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -701,7 +710,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45906.67125625</x:v>
+        <x:v>45931.3924794792</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -733,7 +742,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45906.6647305556</x:v>
+        <x:v>45906.67125625</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -761,9 +770,11 @@
       <x:c r="C5" s="2" t="s">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="D5" s="2" t="s"/>
+      <x:c r="D5" s="2" t="s">
+        <x:v>16</x:v>
+      </x:c>
       <x:c r="E5" s="3">
-        <x:v>45928.81628125</x:v>
+        <x:v>45906.6647305556</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -786,16 +797,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C6" s="2" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="D6" s="2" t="s">
         <x:v>18</x:v>
       </x:c>
+      <x:c r="D6" s="2" t="s"/>
       <x:c r="E6" s="3">
-        <x:v>45927.4152961458</x:v>
+        <x:v>45928.81628125</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -827,7 +836,7 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.4194462153</x:v>
+        <x:v>45927.4152961458</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -859,7 +868,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.4869801736</x:v>
+        <x:v>45907.4194462153</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -891,7 +900,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45906.6643803588</x:v>
+        <x:v>45907.4869801736</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -923,7 +932,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.4261113426</x:v>
+        <x:v>45906.6643803588</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -955,7 +964,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45906.6649337616</x:v>
+        <x:v>45907.4261113426</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -987,7 +996,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45927.4576959491</x:v>
+        <x:v>45906.6649337616</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1019,7 +1028,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.6647323727</x:v>
+        <x:v>45927.4576959491</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1051,7 +1060,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.711025</x:v>
+        <x:v>45906.6647323727</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1083,7 +1092,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.6647042824</x:v>
+        <x:v>45906.711025</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1115,7 +1124,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.4175680903</x:v>
+        <x:v>45906.6647042824</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1132,6 +1141,38 @@
       <x:c r="R16" s="2" t="s"/>
       <x:c r="S16" s="2" t="s"/>
       <x:c r="T16" s="2" t="s"/>
+    </x:row>
+    <x:row r="17" spans="1:20">
+      <x:c r="A17" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B17" s="2" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="C17" s="2" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="D17" s="2" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="E17" s="3">
+        <x:v>45907.4175680903</x:v>
+      </x:c>
+      <x:c r="F17" s="2" t="s"/>
+      <x:c r="G17" s="2" t="s"/>
+      <x:c r="H17" s="2" t="s"/>
+      <x:c r="I17" s="2" t="s"/>
+      <x:c r="J17" s="2" t="s"/>
+      <x:c r="K17" s="2" t="s"/>
+      <x:c r="L17" s="2" t="s"/>
+      <x:c r="M17" s="2" t="s"/>
+      <x:c r="N17" s="2" t="s"/>
+      <x:c r="O17" s="2" t="s"/>
+      <x:c r="P17" s="2" t="s"/>
+      <x:c r="Q17" s="2" t="s"/>
+      <x:c r="R17" s="2" t="s"/>
+      <x:c r="S17" s="2" t="s"/>
+      <x:c r="T17" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EPES402_Tutorial-35437.xlsx
+++ b/downloaded_files/EPES402_Tutorial-35437.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -109,6 +109,12 @@
   </x:si>
   <x:si>
     <x:t>Belal mohamed abd elmaksod</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250459</x:t>
+  </x:si>
+  <x:si>
+    <x:t>تيما غسان الراعى</x:t>
   </x:si>
   <x:si>
     <x:t>1220065</x:t>
@@ -287,7 +293,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E17" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E18" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -587,7 +593,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T17"/>
+  <x:dimension ref="A1:T18"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -960,11 +966,9 @@
       <x:c r="C11" s="2" t="s">
         <x:v>32</x:v>
       </x:c>
-      <x:c r="D11" s="2" t="s">
-        <x:v>33</x:v>
-      </x:c>
+      <x:c r="D11" s="2" t="s"/>
       <x:c r="E11" s="3">
-        <x:v>45907.4261113426</x:v>
+        <x:v>45935.7907480324</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -987,16 +991,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B12" s="2" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="C12" s="2" t="s">
         <x:v>34</x:v>
       </x:c>
-      <x:c r="C12" s="2" t="s">
+      <x:c r="D12" s="2" t="s">
         <x:v>35</x:v>
       </x:c>
-      <x:c r="D12" s="2" t="s">
-        <x:v>36</x:v>
-      </x:c>
       <x:c r="E12" s="3">
-        <x:v>45906.6649337616</x:v>
+        <x:v>45907.4261113426</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1019,16 +1023,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B13" s="2" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="C13" s="2" t="s">
         <x:v>37</x:v>
       </x:c>
-      <x:c r="C13" s="2" t="s">
+      <x:c r="D13" s="2" t="s">
         <x:v>38</x:v>
       </x:c>
-      <x:c r="D13" s="2" t="s">
-        <x:v>39</x:v>
-      </x:c>
       <x:c r="E13" s="3">
-        <x:v>45927.4576959491</x:v>
+        <x:v>45906.6649337616</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1051,16 +1055,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B14" s="2" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="C14" s="2" t="s">
         <x:v>40</x:v>
       </x:c>
-      <x:c r="C14" s="2" t="s">
+      <x:c r="D14" s="2" t="s">
         <x:v>41</x:v>
       </x:c>
-      <x:c r="D14" s="2" t="s">
-        <x:v>42</x:v>
-      </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.6647323727</x:v>
+        <x:v>45927.4576959491</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1083,16 +1087,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B15" s="2" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="C15" s="2" t="s">
         <x:v>43</x:v>
       </x:c>
-      <x:c r="C15" s="2" t="s">
+      <x:c r="D15" s="2" t="s">
         <x:v>44</x:v>
       </x:c>
-      <x:c r="D15" s="2" t="s">
-        <x:v>45</x:v>
-      </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.711025</x:v>
+        <x:v>45906.6647323727</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1115,16 +1119,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B16" s="2" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="C16" s="2" t="s">
         <x:v>46</x:v>
       </x:c>
-      <x:c r="C16" s="2" t="s">
+      <x:c r="D16" s="2" t="s">
         <x:v>47</x:v>
       </x:c>
-      <x:c r="D16" s="2" t="s">
-        <x:v>48</x:v>
-      </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.6647042824</x:v>
+        <x:v>45906.711025</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1147,16 +1151,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B17" s="2" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="C17" s="2" t="s">
         <x:v>49</x:v>
       </x:c>
-      <x:c r="C17" s="2" t="s">
+      <x:c r="D17" s="2" t="s">
         <x:v>50</x:v>
       </x:c>
-      <x:c r="D17" s="2" t="s">
-        <x:v>51</x:v>
-      </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.4175680903</x:v>
+        <x:v>45906.6647042824</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1173,6 +1177,38 @@
       <x:c r="R17" s="2" t="s"/>
       <x:c r="S17" s="2" t="s"/>
       <x:c r="T17" s="2" t="s"/>
+    </x:row>
+    <x:row r="18" spans="1:20">
+      <x:c r="A18" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B18" s="2" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="C18" s="2" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="D18" s="2" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="E18" s="3">
+        <x:v>45907.4175680903</x:v>
+      </x:c>
+      <x:c r="F18" s="2" t="s"/>
+      <x:c r="G18" s="2" t="s"/>
+      <x:c r="H18" s="2" t="s"/>
+      <x:c r="I18" s="2" t="s"/>
+      <x:c r="J18" s="2" t="s"/>
+      <x:c r="K18" s="2" t="s"/>
+      <x:c r="L18" s="2" t="s"/>
+      <x:c r="M18" s="2" t="s"/>
+      <x:c r="N18" s="2" t="s"/>
+      <x:c r="O18" s="2" t="s"/>
+      <x:c r="P18" s="2" t="s"/>
+      <x:c r="Q18" s="2" t="s"/>
+      <x:c r="R18" s="2" t="s"/>
+      <x:c r="S18" s="2" t="s"/>
+      <x:c r="T18" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
